--- a/data/StressTestStats.xlsx
+++ b/data/StressTestStats.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8472" activeTab="1" xr2:uid="{426A7DB9-00C1-4F09-AB50-FC19E2DF6C33}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8472" activeTab="2" xr2:uid="{426A7DB9-00C1-4F09-AB50-FC19E2DF6C33}"/>
   </bookViews>
   <sheets>
     <sheet name="11-28" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet2" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
   <si>
     <t>StressTest4</t>
   </si>
@@ -189,6 +190,18 @@
   </si>
   <si>
     <t>First point on High was actually Higher Than Most</t>
+  </si>
+  <si>
+    <t>Stress Test 16</t>
+  </si>
+  <si>
+    <t>Testing New Built in MainLoop Warm up</t>
+  </si>
+  <si>
+    <t>StressTest16</t>
+  </si>
+  <si>
+    <t>High Spikes, Test Once More Around Midnight</t>
   </si>
 </sst>
 </file>
@@ -9470,7 +9483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9912928-F440-45A1-AE2C-7CD798B7C8B9}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
@@ -9813,10 +9826,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2DA11F-D090-429E-8938-D8D1215B0BFF}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9903,6 +9916,60 @@
       </c>
       <c r="L3" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>0.627</v>
+      </c>
+      <c r="J6">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="J7">
+        <v>-8.0000000000000004E-4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
